--- a/クリックポスト発送情報/20200810231750/英子日本发货表格8.10.xlsx
+++ b/クリックポスト発送情報/20200810231750/英子日本发货表格8.10.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>序号</t>
   </si>
@@ -331,6 +331,54 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628559790784</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628559790773</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628559790762</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628559790751</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628559790740</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628559790736</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628559790725</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628559790714</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628559790703</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628559790692</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628559790681</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628559790670</t>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -339,7 +387,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -486,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -583,19 +631,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1921,7 +1972,9 @@
       <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="37" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -1946,7 +1999,7 @@
       <c r="I3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="13" t="s">
@@ -1971,7 +2024,9 @@
       <c r="I4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="36"/>
+      <c r="K4" s="37" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1996,7 +2051,7 @@
       <c r="I5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="16" t="s">
@@ -2021,7 +2076,9 @@
       <c r="I6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="37" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="16" t="s">
@@ -2046,7 +2103,9 @@
       <c r="I7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="37" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="19" t="s">
@@ -2071,7 +2130,9 @@
       <c r="I8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="37" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
       <c r="A9" s="19" t="s">
@@ -2096,7 +2157,9 @@
       <c r="I9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="36"/>
+      <c r="K9" s="37" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
       <c r="A10" s="22" t="s">
@@ -2121,7 +2184,9 @@
       <c r="I10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="36"/>
+      <c r="K10" s="37" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
       <c r="A11" s="25">
@@ -2146,7 +2211,9 @@
       <c r="I11" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="37" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:181" s="1" customFormat="1" ht="121.95" customHeight="1">
       <c r="A12" s="27" t="s">
@@ -2172,7 +2239,9 @@
         <v>76</v>
       </c>
       <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="K12" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
@@ -2206,10 +2275,12 @@
       <c r="I13" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="36"/>
+      <c r="K13" s="37" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="35" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="1"/>
@@ -2219,22 +2290,24 @@
       <c r="D14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="36"/>
+      <c r="K14" s="37" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1"/>
       <c r="C15" s="28" t="s">
         <v>91</v>
@@ -2242,11 +2315,13 @@
       <c r="D15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="K15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="K15" s="37" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="17" ht="121.95" customHeight="1"/>
